--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miranda\Downloads\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miranda\Desktop\Heart\Heart Test\Heart Internship\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Url</t>
   </si>
@@ -65,16 +65,52 @@
     <t>video editing</t>
   </si>
   <si>
-    <t>automation testing</t>
-  </si>
-  <si>
-    <t>automation testing using Postman</t>
-  </si>
-  <si>
-    <t>automate</t>
-  </si>
-  <si>
     <t>video editing using Adobe premiere pro</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>11/01/2019</t>
+  </si>
+  <si>
+    <t>11/07/2019</t>
+  </si>
+  <si>
+    <t>08:00AM</t>
+  </si>
+  <si>
+    <t>05:00PM</t>
+  </si>
+  <si>
+    <t>Sunday Start Time</t>
+  </si>
+  <si>
+    <t>Sunday End Time</t>
+  </si>
+  <si>
+    <t>Monday Start Time</t>
+  </si>
+  <si>
+    <t>Monday End Time</t>
+  </si>
+  <si>
+    <t>Tuesday Start Time</t>
+  </si>
+  <si>
+    <t>Tuesday End Time</t>
+  </si>
+  <si>
+    <t>Skill Exchange</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>photo editing</t>
   </si>
 </sst>
 </file>
@@ -111,12 +147,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,10 +178,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,10 +579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,50 +592,99 @@
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="52.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>